--- a/biology/Zoologie/Mark_Stephen_Harvey/Mark_Stephen_Harvey.xlsx
+++ b/biology/Zoologie/Mark_Stephen_Harvey/Mark_Stephen_Harvey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mark Stephen Harvey, né le 17 septembre 1958[1], est un arachnologiste australien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark Stephen Harvey, né le 17 septembre 1958, est un arachnologiste australien.
 Diplômé de l'Université Monash, il est Senior Curator du Department of Terrestrial Zoology du Western Australian Museum.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anepsiozomus Harvey, 2001
@@ -651,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Harvey, 1991 : Catalogue of the Pseudoscorpionida. Manchester University Press, Manchester, p. 1-726.
 Harvey, 2003 : Catalogue of the smaller arachnid orders of the world: Amblypygi, Uropygi, Schizomida, Palpigradi, Ricinulei and Solifugae. CSIRO Publishing, Melbourne, p. 1-385.</t>
